--- a/output/table_s6/VLXT.xlsx
+++ b/output/table_s6/VLXT.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -486,7 +486,7 @@
         <v>0.02</v>
       </c>
       <c r="D2" t="n">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="E2" t="n">
         <v>-0.04</v>
@@ -498,10 +498,10 @@
         <v>0.03</v>
       </c>
       <c r="H2" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.09</v>
+        <v>-0.07000000000000001</v>
       </c>
     </row>
     <row r="3">
@@ -509,16 +509,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="C3" t="n">
         <v>0.03</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.07000000000000001</v>
+        <v>-0.05</v>
       </c>
       <c r="F3" t="n">
         <v>0.01</v>
@@ -527,10 +527,10 @@
         <v>0.05</v>
       </c>
       <c r="H3" t="n">
-        <v>0.12</v>
+        <v>0.13</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.12</v>
+        <v>-0.11</v>
       </c>
     </row>
     <row r="4">
@@ -538,28 +538,28 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C4" t="n">
         <v>0.02</v>
       </c>
       <c r="D4" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="E4" t="n">
         <v>-0.05</v>
       </c>
       <c r="F4" t="n">
-        <v>0.01</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
         <v>0.03</v>
       </c>
       <c r="H4" t="n">
-        <v>0.09</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.06</v>
+        <v>-0.08</v>
       </c>
     </row>
     <row r="5">
@@ -570,7 +570,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="D5" t="n">
         <v>0.04</v>
@@ -579,7 +579,7 @@
         <v>-0.03</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G5" t="n">
         <v>0.02</v>
@@ -596,28 +596,28 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0.03</v>
       </c>
       <c r="D6" t="n">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.06</v>
+        <v>-0.07000000000000001</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="H6" t="n">
-        <v>0.1</v>
+        <v>0.13</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.09</v>
+        <v>-0.13</v>
       </c>
     </row>
     <row r="7">
@@ -634,19 +634,19 @@
         <v>0.06</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.08</v>
+        <v>-0.07000000000000001</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>-0.01</v>
       </c>
       <c r="G7" t="n">
         <v>0.04</v>
       </c>
       <c r="H7" t="n">
-        <v>0.14</v>
+        <v>0.11</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.08</v>
+        <v>-0.1</v>
       </c>
     </row>
     <row r="8">
@@ -654,7 +654,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C8" t="n">
         <v>0.03</v>
@@ -663,19 +663,19 @@
         <v>0.09</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.07000000000000001</v>
+        <v>-0.06</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="H8" t="n">
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.09</v>
+        <v>-0.11</v>
       </c>
     </row>
     <row r="9">
@@ -692,19 +692,19 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.05</v>
+        <v>-0.07000000000000001</v>
       </c>
       <c r="F9" t="n">
-        <v>0.01</v>
+        <v>-0</v>
       </c>
       <c r="G9" t="n">
         <v>0.04</v>
       </c>
       <c r="H9" t="n">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.07000000000000001</v>
+        <v>-0.13</v>
       </c>
     </row>
     <row r="10">
@@ -718,13 +718,13 @@
         <v>0.02</v>
       </c>
       <c r="D10" t="n">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.04</v>
+        <v>-0.05</v>
       </c>
       <c r="F10" t="n">
-        <v>0.01</v>
+        <v>-0</v>
       </c>
       <c r="G10" t="n">
         <v>0.03</v>
@@ -733,7 +733,7 @@
         <v>0.08</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.08</v>
+        <v>-0.07000000000000001</v>
       </c>
     </row>
     <row r="11">
@@ -747,7 +747,7 @@
         <v>0.02</v>
       </c>
       <c r="D11" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="E11" t="n">
         <v>-0.05</v>
@@ -759,10 +759,10 @@
         <v>0.03</v>
       </c>
       <c r="H11" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.09</v>
+        <v>-0.1</v>
       </c>
     </row>
     <row r="12">
@@ -770,25 +770,25 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
         <v>0.02</v>
       </c>
       <c r="D12" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.06</v>
+        <v>-0.04</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G12" t="n">
         <v>0.03</v>
       </c>
       <c r="H12" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I12" t="n">
         <v>-0.08</v>
@@ -799,28 +799,28 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C13" t="n">
         <v>0.02</v>
       </c>
       <c r="D13" t="n">
-        <v>0.06</v>
+        <v>0.04</v>
       </c>
       <c r="E13" t="n">
         <v>-0.05</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>-0.01</v>
       </c>
       <c r="G13" t="n">
         <v>0.03</v>
       </c>
       <c r="H13" t="n">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.08</v>
+        <v>-0.12</v>
       </c>
     </row>
     <row r="14">
@@ -828,19 +828,19 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0.02</v>
       </c>
       <c r="D14" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.05</v>
+        <v>-0.04</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G14" t="n">
         <v>0.03</v>
@@ -849,7 +849,7 @@
         <v>0.08</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.08</v>
+        <v>-0.1</v>
       </c>
     </row>
     <row r="15">
@@ -863,22 +863,22 @@
         <v>0.02</v>
       </c>
       <c r="D15" t="n">
-        <v>0.06</v>
+        <v>0.04</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.07000000000000001</v>
+        <v>-0.04</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G15" t="n">
         <v>0.03</v>
       </c>
       <c r="H15" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.07000000000000001</v>
+        <v>-0.09</v>
       </c>
     </row>
     <row r="16">
@@ -889,25 +889,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="D16" t="n">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.03</v>
+        <v>-0.04</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="H16" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.07000000000000001</v>
+        <v>-0.05</v>
       </c>
     </row>
     <row r="17">
@@ -915,28 +915,28 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0.02</v>
       </c>
       <c r="D17" t="n">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.06</v>
+        <v>-0.05</v>
       </c>
       <c r="F17" t="n">
-        <v>0.01</v>
+        <v>-0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="H17" t="n">
-        <v>0.11</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.09</v>
+        <v>-0.1</v>
       </c>
     </row>
     <row r="18">
@@ -944,28 +944,28 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
+        <v>-0</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E18" t="n">
+        <v>-0.09</v>
+      </c>
+      <c r="F18" t="n">
         <v>-0.01</v>
       </c>
-      <c r="C18" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="D18" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="E18" t="n">
-        <v>-0.08</v>
-      </c>
-      <c r="F18" t="n">
-        <v>0.01</v>
-      </c>
       <c r="G18" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="H18" t="n">
-        <v>0.18</v>
+        <v>0.14</v>
       </c>
       <c r="I18" t="n">
-        <v>-0.11</v>
+        <v>-0.13</v>
       </c>
     </row>
     <row r="19">
@@ -973,25 +973,25 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0.02</v>
       </c>
       <c r="D19" t="n">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
       <c r="E19" t="n">
-        <v>-0.06</v>
+        <v>-0.04</v>
       </c>
       <c r="F19" t="n">
-        <v>0.01</v>
+        <v>-0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="H19" t="n">
-        <v>0.13</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I19" t="n">
         <v>-0.08</v>
@@ -1008,10 +1008,10 @@
         <v>0.03</v>
       </c>
       <c r="D20" t="n">
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
       <c r="E20" t="n">
-        <v>-0.09</v>
+        <v>-0.06</v>
       </c>
       <c r="F20" t="n">
         <v>-0</v>
@@ -1020,10 +1020,10 @@
         <v>0.05</v>
       </c>
       <c r="H20" t="n">
-        <v>0.09</v>
+        <v>0.12</v>
       </c>
       <c r="I20" t="n">
-        <v>-0.12</v>
+        <v>-0.13</v>
       </c>
     </row>
     <row r="21">
@@ -1037,19 +1037,19 @@
         <v>0.03</v>
       </c>
       <c r="D21" t="n">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E21" t="n">
-        <v>-0.06</v>
+        <v>-0.07000000000000001</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.01</v>
+        <v>-0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="H21" t="n">
-        <v>0.11</v>
+        <v>0.14</v>
       </c>
       <c r="I21" t="n">
         <v>-0.11</v>

--- a/output/table_s6/VLXT.xlsx
+++ b/output/table_s6/VLXT.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -486,19 +486,19 @@
         <v>0.02</v>
       </c>
       <c r="D2" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="E2" t="n">
         <v>-0.04</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G2" t="n">
         <v>0.03</v>
       </c>
       <c r="H2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.09</v>
       </c>
       <c r="I2" t="n">
         <v>-0.07000000000000001</v>
@@ -509,28 +509,28 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0.03</v>
       </c>
       <c r="D3" t="n">
-        <v>0.09</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.05</v>
+        <v>-0.06</v>
       </c>
       <c r="F3" t="n">
-        <v>0.01</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
         <v>0.05</v>
       </c>
       <c r="H3" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.11</v>
+        <v>-0.14</v>
       </c>
     </row>
     <row r="4">
@@ -538,25 +538,25 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0.02</v>
       </c>
       <c r="D4" t="n">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.05</v>
+        <v>-0.03</v>
       </c>
       <c r="F4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0.03</v>
       </c>
       <c r="H4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="I4" t="n">
         <v>-0.08</v>
@@ -570,10 +570,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="D5" t="n">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="E5" t="n">
         <v>-0.03</v>
@@ -588,7 +588,7 @@
         <v>0.06</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.06</v>
+        <v>-0.05</v>
       </c>
     </row>
     <row r="6">
@@ -599,25 +599,25 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="D6" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.07000000000000001</v>
+        <v>-0.06</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="H6" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.13</v>
+        <v>-0.1</v>
       </c>
     </row>
     <row r="7">
@@ -634,19 +634,19 @@
         <v>0.06</v>
       </c>
       <c r="E7" t="n">
+        <v>-0.05</v>
+      </c>
+      <c r="F7" t="n">
+        <v>-0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="I7" t="n">
         <v>-0.07000000000000001</v>
-      </c>
-      <c r="F7" t="n">
-        <v>-0.01</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="I7" t="n">
-        <v>-0.1</v>
       </c>
     </row>
     <row r="8">
@@ -660,7 +660,7 @@
         <v>0.03</v>
       </c>
       <c r="D8" t="n">
-        <v>0.09</v>
+        <v>0.06</v>
       </c>
       <c r="E8" t="n">
         <v>-0.06</v>
@@ -672,7 +672,7 @@
         <v>0.04</v>
       </c>
       <c r="H8" t="n">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="I8" t="n">
         <v>-0.11</v>
@@ -689,10 +689,10 @@
         <v>0.02</v>
       </c>
       <c r="D9" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.07000000000000001</v>
+        <v>-0.05</v>
       </c>
       <c r="F9" t="n">
         <v>-0</v>
@@ -704,7 +704,7 @@
         <v>0.11</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.13</v>
+        <v>-0.09</v>
       </c>
     </row>
     <row r="10">
@@ -718,10 +718,10 @@
         <v>0.02</v>
       </c>
       <c r="D10" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.05</v>
+        <v>-0.04</v>
       </c>
       <c r="F10" t="n">
         <v>-0</v>
@@ -747,22 +747,22 @@
         <v>0.02</v>
       </c>
       <c r="D11" t="n">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="E11" t="n">
         <v>-0.05</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G11" t="n">
         <v>0.03</v>
       </c>
       <c r="H11" t="n">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.1</v>
+        <v>-0.06</v>
       </c>
     </row>
     <row r="12">
@@ -776,19 +776,19 @@
         <v>0.02</v>
       </c>
       <c r="D12" t="n">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.04</v>
+        <v>-0.03</v>
       </c>
       <c r="F12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
         <v>0.03</v>
       </c>
       <c r="H12" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="I12" t="n">
         <v>-0.08</v>
@@ -799,25 +799,25 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0.02</v>
       </c>
       <c r="D13" t="n">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
       <c r="E13" t="n">
         <v>-0.05</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.01</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="H13" t="n">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="I13" t="n">
         <v>-0.12</v>
@@ -840,16 +840,16 @@
         <v>-0.04</v>
       </c>
       <c r="F14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0.03</v>
       </c>
       <c r="H14" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.1</v>
+        <v>-0.06</v>
       </c>
     </row>
     <row r="15">
@@ -866,7 +866,7 @@
         <v>0.04</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.04</v>
+        <v>-0.05</v>
       </c>
       <c r="F15" t="n">
         <v>-0</v>
@@ -875,7 +875,7 @@
         <v>0.03</v>
       </c>
       <c r="H15" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.09</v>
       </c>
       <c r="I15" t="n">
         <v>-0.09</v>
@@ -886,7 +886,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C16" t="n">
         <v>0.01</v>
@@ -898,16 +898,16 @@
         <v>-0.04</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="H16" t="n">
-        <v>0.08</v>
+        <v>0.06</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.05</v>
+        <v>-0.07000000000000001</v>
       </c>
     </row>
     <row r="17">
@@ -927,16 +927,16 @@
         <v>-0.05</v>
       </c>
       <c r="F17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0.03</v>
       </c>
       <c r="H17" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.11</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.1</v>
+        <v>-0.09</v>
       </c>
     </row>
     <row r="18">
@@ -944,25 +944,25 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
         <v>0.04</v>
       </c>
       <c r="D18" t="n">
-        <v>0.08</v>
+        <v>0.11</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.09</v>
+        <v>-0.07000000000000001</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.01</v>
+        <v>-0</v>
       </c>
       <c r="G18" t="n">
         <v>0.05</v>
       </c>
       <c r="H18" t="n">
-        <v>0.14</v>
+        <v>0.15</v>
       </c>
       <c r="I18" t="n">
         <v>-0.13</v>
@@ -982,7 +982,7 @@
         <v>0.06</v>
       </c>
       <c r="E19" t="n">
-        <v>-0.04</v>
+        <v>-0.05</v>
       </c>
       <c r="F19" t="n">
         <v>-0</v>
@@ -991,7 +991,7 @@
         <v>0.03</v>
       </c>
       <c r="H19" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="I19" t="n">
         <v>-0.08</v>
@@ -1002,28 +1002,28 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0.03</v>
       </c>
       <c r="D20" t="n">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="E20" t="n">
-        <v>-0.06</v>
+        <v>-0.07000000000000001</v>
       </c>
       <c r="F20" t="n">
-        <v>-0</v>
+        <v>-0.01</v>
       </c>
       <c r="G20" t="n">
         <v>0.05</v>
       </c>
       <c r="H20" t="n">
-        <v>0.12</v>
+        <v>0.13</v>
       </c>
       <c r="I20" t="n">
-        <v>-0.13</v>
+        <v>-0.15</v>
       </c>
     </row>
     <row r="21">
@@ -1037,22 +1037,22 @@
         <v>0.03</v>
       </c>
       <c r="D21" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="E21" t="n">
-        <v>-0.07000000000000001</v>
+        <v>-0.08</v>
       </c>
       <c r="F21" t="n">
-        <v>-0</v>
+        <v>-0.01</v>
       </c>
       <c r="G21" t="n">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="H21" t="n">
-        <v>0.14</v>
+        <v>0.11</v>
       </c>
       <c r="I21" t="n">
-        <v>-0.11</v>
+        <v>-0.1</v>
       </c>
     </row>
   </sheetData>

--- a/output/table_s6/VLXT.xlsx
+++ b/output/table_s6/VLXT.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
